--- a/tests/A02_pixell_test_plan_investment_account.xlsx
+++ b/tests/A02_pixell_test_plan_investment_account.xlsx
@@ -87,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +98,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -148,7 +154,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -415,88 +428,88 @@
   <cellXfs count="31">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,7 +858,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="73.15">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="35.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -858,7 +871,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>2</v>

--- a/tests/A02_pixell_test_plan_investment_account.xlsx
+++ b/tests/A02_pixell_test_plan_investment_account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>#VALUE!</t>
   </si>
@@ -55,28 +55,101 @@
     <t>Attributes are set to parameter values.</t>
   </si>
   <si>
+    <t xml:space="preserve">        test_account = InvestmentAccount(1, 10, 500.0, date.today(), 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        excepted = 2.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        actual = test_account._InvestmentAccount__management_fee
+        self.assertEqual(excepted, actual)</t>
+  </si>
+  <si>
     <t>management fee has invalid type.</t>
   </si>
   <si>
+    <t xml:space="preserve">        test_account = InvestmentAccount(1, 10, 500.0, date.today(), "hi")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        expected = 2.5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        actual = test_account._InvestmentAccount__management_fee
+        self.assertEqual(expected, actual)</t>
+  </si>
+  <si>
     <t>get_service_charges</t>
   </si>
   <si>
     <t>date created more than 10 years ago</t>
   </si>
   <si>
+    <t xml:space="preserve">        test_account = InvestmentAccount(1, 10, 500.0, date(2000, 1, 1), 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        expected = .5</t>
+  </si>
+  <si>
+    <t>actual = test_account.get_service_charges()
+        self.assertEqual(expected, actual)</t>
+  </si>
+  <si>
     <t>date created exactly 10 years ago.</t>
   </si>
   <si>
+    <t xml:space="preserve"> ten_years = date.today()-timedelta(days=10 * 365.25)
+        test_account = InvestmentAccount(
+            1, 10, 500.0, date.today()-ten_years, 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> expected = 2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        actual = test_account.get_service_charges()
+        self.assertEqual(expected, actual)
+</t>
+  </si>
+  <si>
     <t>date created within last 10 years.</t>
   </si>
   <si>
+    <t xml:space="preserve">        test_account = InvestmentAccount(1, 10, 500.0, date(2020, 1, 1), 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        expected = 2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        actual = test_account.get_service_charges()
+        self.assertEqual(expected, actual)</t>
+  </si>
+  <si>
     <t>__str__</t>
   </si>
   <si>
     <t>displays waived management fee when date created more than 10 years ago.</t>
   </si>
   <si>
+    <t>test_account = InvestmentAccount(1, 10, 500.0, date(2000, 1, 1), 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        expected = (f"\nAccount Number: 1  Balance: 500.00$\n"
+                    f"Date Created: 2000-01-01 Management Fee: 0.50  Account Type: Investment")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        actual = str(test_account)
+        self.assertEqual(expected, actual)</t>
+  </si>
+  <si>
     <t>displays  management fee when date created within last 10 years.</t>
+  </si>
+  <si>
+    <t>test_account = InvestmentAccount(1, 10, 500.0, date(2020, 1, 1), 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        expected = (f"\nAccount Number: 1  Balance: 500.00$\n"
+                    f"Date Created: 2020-01-01 Management Fee: 2.50  Account Type: Investment")</t>
   </si>
   <si>
     <t>Add more rows as necessary</t>
@@ -427,13 +500,13 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -475,7 +548,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -858,7 +931,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="35.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="34.5">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -925,7 +998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33" customFormat="1" s="16">
       <c r="A7" s="17"/>
       <c r="B7" s="18">
         <v>1</v>
@@ -936,9 +1009,15 @@
       <c r="D7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25" customFormat="1" s="16">
       <c r="A8" s="17"/>
@@ -949,26 +1028,38 @@
         <v>11</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25" customFormat="1" s="16">
+        <v>16</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33" customFormat="1" s="16">
       <c r="A9" s="17"/>
       <c r="B9" s="18">
         <v>3</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+        <v>21</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25" customFormat="1" s="16">
       <c r="A10" s="17"/>
@@ -976,29 +1067,41 @@
         <v>4</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25" customFormat="1" s="16">
+        <v>25</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="16">
       <c r="A11" s="17"/>
       <c r="B11" s="18">
         <v>5</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="46.5" customFormat="1" s="16">
       <c r="A12" s="17"/>
@@ -1006,14 +1109,20 @@
         <v>6</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+        <v>34</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33" customFormat="1" s="16">
       <c r="A13" s="17"/>
@@ -1021,14 +1130,20 @@
         <v>7</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="1"/>
@@ -1251,7 +1366,7 @@
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1"/>
       <c r="B34" s="26" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
